--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.7276286074046</v>
+        <v>13446.22569585287</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.7276286074046</v>
+        <v>13446.22569585287</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959474442.1778278</v>
+        <v>39806855.60464109</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8439.683618626819</v>
+        <v>951220.165234231</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15822.09283372777</v>
+        <v>1737899.463882411</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23204.50204882871</v>
+        <v>2524578.762530593</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30618.05586961864</v>
+        <v>3313632.308982017</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38021.6315085904</v>
+        <v>4100700.197251623</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45425.20714756214</v>
+        <v>4887768.085521229</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52828.78278653388</v>
+        <v>5674835.973790832</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60232.35842550562</v>
+        <v>6461903.862060434</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67635.93406447738</v>
+        <v>7248971.750330037</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75039.50970344913</v>
+        <v>8036039.638599639</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82443.08534242088</v>
+        <v>8823107.526869247</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89815.51637570362</v>
+        <v>9607801.167335615</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97197.92559080455</v>
+        <v>10394480.4659838</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104580.3348059055</v>
+        <v>11181159.76463199</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111962.7440210064</v>
+        <v>11967839.06328017</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>396</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>396</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
